--- a/lci_automation_creation_template.xlsx
+++ b/lci_automation_creation_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B481EA7D-CB41-4316-BFF8-828F8070936E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585AC4A1-F33A-449E-A4D7-11ADBEB871B7}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B481EA7D-CB41-4316-BFF8-828F8070936E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651D46A7-F21D-4288-9E9E-7164854BBE09}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{214EA84B-B3D4-4C29-AC19-39EEFF69F7D6}"/>
   </bookViews>
@@ -139,6 +139,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
